--- a/data/trans_camb/P14_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,92</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,47</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>16,85</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 19,72</t>
+          <t>12,51; 19,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,22; 21,2</t>
+          <t>14,83; 21,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,97; 19,61</t>
+          <t>14,62; 19,18</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>557,88%</t>
+          <t>544,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>598,08%</t>
+          <t>557,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>579,91%</t>
+          <t>551,88%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>313,77; 1063,91</t>
+          <t>285,69; 1025,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>335,87; 966,37</t>
+          <t>326,55; 998,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>392,26; 857,15</t>
+          <t>371,88; 814,87</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>18,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,56</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,61</t>
+          <t>18,75</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,75; 22,06</t>
+          <t>14,37; 22,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 23,71</t>
+          <t>14,79; 23,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,44; 21,32</t>
+          <t>15,83; 22,08</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>748,78%</t>
+          <t>764,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>495,98%</t>
+          <t>459,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>589,42%</t>
+          <t>569,54%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>363,39; 1816,92</t>
+          <t>369,05; 1613,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>249,8; 971,08</t>
+          <t>173,22; 795,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>358,2; 948,92</t>
+          <t>321,78; 901,78</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,9</t>
+          <t>21,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,01</t>
+          <t>24,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,44</t>
+          <t>22,94</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,91; 29,17</t>
+          <t>14,09; 29,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,72; 30,65</t>
+          <t>17,64; 31,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,99; 26,88</t>
+          <t>18,22; 28,54</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>965,44%</t>
+          <t>947,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>433,15%</t>
+          <t>988,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>594,95%</t>
+          <t>968,19%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>234,49; 3867,65</t>
+          <t>245,73; 3689,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>47,31; 2288,69</t>
+          <t>324,37; 4483,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144,7; 1781,47</t>
+          <t>415,74; 2372,48</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,28</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,28</t>
+          <t>18,31</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,66; 19,65</t>
+          <t>14,97; 19,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,88; 21,49</t>
+          <t>16,77; 21,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,01</t>
+          <t>16,79; 20,03</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>669,81%</t>
+          <t>667,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>529,03%</t>
+          <t>546,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>585,63%</t>
+          <t>597,2%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>434,58; 1019,38</t>
+          <t>418,14; 1028,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>324,3; 781,61</t>
+          <t>346,84; 778,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>437,51; 793,42</t>
+          <t>430,96; 784,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>15,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,85</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>15.72082878363638</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>18.01446109124934</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>16.9258369683729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>12,51; 19,47</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>14,83; 21,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>14,62; 19,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>12.55934831347148</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>14.9358830273742</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>14.66297263109573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>544,19%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>557,85%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>551,88%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.53559282293565</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.27515306477879</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.23257382016293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>285,69; 1025,18</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>326,55; 998,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>371,88; 814,87</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>5.529736849970276</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>5.74760422506012</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>5.650986862561639</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>18,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>18,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>2.886139588513794</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>3.376619621567948</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>3.812223620811891</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>14,37; 22,19</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>14,79; 23,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>15,83; 22,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>10.28350039302101</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>10.29025827769254</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>8.253339669108888</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>764,92%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>459,52%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>569,54%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>18.12963960562864</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>19.45521985090647</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>18.78309565194684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>369,05; 1613,45</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>173,22; 795,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>321,78; 901,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>14.39167973310157</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>15.4649548868561</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>15.98537462669663</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>21,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>24,42</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>22,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.97736207151478</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>23.18491423856882</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>22.06080236549531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>14,09; 29,82</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>17,64; 31,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>18,22; 28,54</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>7.903529616842741</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>4.975623767252254</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>6.045215194521961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>947,42%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>988,13%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>968,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>3.749835732121652</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>2.238944657245102</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>3.59515306032786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>245,73; 3689,48</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>324,37; 4483,34</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>415,74; 2372,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>15.82939863036295</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>8.517070198106714</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>9.323292933544828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>17,47</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>19,11</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>18,31</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>21.04857515920138</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>23.24175610675833</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>22.12562813448924</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>14,97; 19,8</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>16,77; 21,15</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 20,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>13.75850825642241</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>14.90932263729316</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>16.93551313801434</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>667,65%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>546,93%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>597,2%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>29.53423615675815</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>30.64183218401303</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>28.02197046448517</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>418,14; 1028,28</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>346,84; 778,52</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>430,96; 784,67</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>8.719235071462879</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>5.845732355977712</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>6.94741204906502</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>2.234536144840066</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.21582109594107</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>2.257474215563434</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>33.74015998910066</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>24.5842172245766</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>18.57353728605335</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>17.33641050378916</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>19.1536291819039</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>18.26400938663724</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>14.91579035071881</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>16.77686090939872</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>16.75534278184448</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>19.68688482599353</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>21.3266746394813</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>20.02489162060892</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>6.741591819495184</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>5.427194996553725</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>5.965816524730216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>4.262010756969167</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>3.537228466664803</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>4.307304299793118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>10.31529861401789</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>7.504777426418855</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>7.936613535962351</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
